--- a/data/stat probs/luka samanic stat probs - condition.xlsx
+++ b/data/stat probs/luka samanic stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -519,28 +519,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -1353,22 +1353,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2125,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2448,7 +2448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2511,28 +2511,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2587,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2613,22 +2613,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2671,16 +2671,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2703,16 +2703,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2735,16 +2735,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2799,10 +2799,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2820,6 +2820,454 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>100</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>100</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2834,7 +3282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2897,28 +3345,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2947,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2973,16 +3421,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2999,22 +3447,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3031,10 +3479,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3057,16 +3505,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3089,16 +3537,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -3121,16 +3569,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3153,16 +3601,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -3185,10 +3633,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -3206,6 +3654,454 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>100</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>100</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3283,28 +4179,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4117,28 +5013,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4951,28 +5847,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -4995,16 +5891,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -5027,16 +5923,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -5053,22 +5949,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -5085,16 +5981,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5111,16 +6007,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5143,16 +6039,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5175,16 +6071,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5207,16 +6103,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5239,10 +6135,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -5271,10 +6167,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -5303,10 +6199,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -5335,10 +6231,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5367,10 +6263,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -5399,10 +6295,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -5431,10 +6327,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -5463,10 +6359,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -5495,10 +6391,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -5527,10 +6423,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -5559,10 +6455,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -5591,10 +6487,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -5623,10 +6519,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -5655,10 +6551,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -5687,10 +6583,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -5785,28 +6681,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -5829,16 +6725,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -5861,16 +6757,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -5887,22 +6783,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -5919,16 +6815,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5945,16 +6841,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5977,16 +6873,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6009,16 +6905,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6041,16 +6937,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6073,10 +6969,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6105,10 +7001,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6137,10 +7033,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -6169,10 +7065,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6201,10 +7097,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6233,10 +7129,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6265,10 +7161,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6297,10 +7193,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -6329,10 +7225,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -6361,10 +7257,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6393,10 +7289,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -6425,10 +7321,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -6457,10 +7353,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -6489,10 +7385,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -6521,10 +7417,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -6556,7 +7452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6619,28 +7515,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6663,16 +7559,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6695,16 +7591,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -6721,22 +7617,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -6753,16 +7649,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -6779,16 +7675,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6811,16 +7707,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6843,16 +7739,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6875,16 +7771,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6896,486 +7792,6 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>40</v>
-      </c>
-      <c r="D14" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" t="n">
-        <v>80</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" t="n">
-        <v>80</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="n">
-        <v>80</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="n">
-        <v>80</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" t="n">
-        <v>80</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>20</v>
-      </c>
-      <c r="D24" t="n">
-        <v>80</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>20</v>
-      </c>
-      <c r="D25" t="n">
-        <v>80</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7453,28 +7869,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -8219,840 +8635,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>80</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="n">
-        <v>80</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
-        <v>80</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" t="n">
-        <v>80</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>60</v>
-      </c>
-      <c r="D9" t="n">
-        <v>40</v>
-      </c>
-      <c r="E9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F9" t="n">
-        <v>80</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>60</v>
-      </c>
-      <c r="D10" t="n">
-        <v>40</v>
-      </c>
-      <c r="E10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" t="n">
-        <v>80</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>40</v>
-      </c>
-      <c r="D14" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" t="n">
-        <v>80</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" t="n">
-        <v>80</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="n">
-        <v>80</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="n">
-        <v>80</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" t="n">
-        <v>80</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>20</v>
-      </c>
-      <c r="D24" t="n">
-        <v>80</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>20</v>
-      </c>
-      <c r="D25" t="n">
-        <v>80</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9121,28 +8703,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9398,6 +8980,488 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>80</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>60</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" t="n">
+        <v>60</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>80</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>80</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>60</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>80</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="n">
+        <v>80</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9412,7 +9476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9475,28 +9539,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -9519,16 +9583,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -9551,16 +9615,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -9577,16 +9641,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -9609,16 +9673,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -9635,16 +9699,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -9667,16 +9731,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -9699,16 +9763,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -9731,16 +9795,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -9752,6 +9816,134 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>80</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="n">
+        <v>80</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9829,28 +10021,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9873,16 +10065,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -9905,16 +10097,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -9931,16 +10123,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -9963,16 +10155,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -9989,16 +10181,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -10021,16 +10213,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -10053,16 +10245,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -10085,16 +10277,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -10117,16 +10309,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -10149,10 +10341,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -10181,10 +10373,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -10213,10 +10405,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -10311,28 +10503,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10355,16 +10547,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -10387,16 +10579,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10413,16 +10605,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -10445,16 +10637,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -10471,16 +10663,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -10503,16 +10695,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -10535,16 +10727,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -10567,16 +10759,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -10599,16 +10791,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -10631,10 +10823,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -10663,10 +10855,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -10695,10 +10887,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -10793,28 +10985,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11019,28 +11211,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11245,16 +11437,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11471,16 +11663,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11697,28 +11889,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12083,28 +12275,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12917,28 +13109,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13303,28 +13495,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13689,28 +13881,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14075,28 +14267,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14909,28 +15101,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -15295,28 +15487,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -15681,28 +15873,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16163,28 +16355,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16645,22 +16837,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
